--- a/mbs-perturbation/bottleneck/elm/smote/bottleneck_elm_rbf_linf_smote_results.xlsx
+++ b/mbs-perturbation/bottleneck/elm/smote/bottleneck_elm_rbf_linf_smote_results.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5132936722552731</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5037101135749054</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5179485511018568</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4846075631706473</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4865149051490515</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5012149610503468</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
